--- a/function/functionList_protocolCore.xlsx
+++ b/function/functionList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\function_protocolCore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F4BB40-0E77-4F43-ACEE-25F6310E4B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94348E41-A5DC-4C2E-97BF-32B3B213C77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25272" yWindow="1392" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Codice</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>YAX3MUSR</t>
+  </si>
+  <si>
+    <t>Backend utenti ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>YAX3M (B*)</t>
   </si>
 </sst>
 </file>
@@ -200,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +232,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,13 +581,27 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>

--- a/function/functionList_protocolCore.xlsx
+++ b/function/functionList_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94348E41-A5DC-4C2E-97BF-32B3B213C77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A618455-3D94-43CC-8CFF-2D9604BC1AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25272" yWindow="1392" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/function/functionList_protocolCore.xlsx
+++ b/function/functionList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A618455-3D94-43CC-8CFF-2D9604BC1AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A763A-4EC3-4CAA-80CC-EBB9A94B8D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Codice</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Supervisore</t>
   </si>
   <si>
-    <t>YAX3M</t>
-  </si>
-  <si>
     <t>Programma</t>
   </si>
   <si>
@@ -72,7 +69,7 @@
     <t>Backend utenti ArgoX3 Mobile</t>
   </si>
   <si>
-    <t>YAX3M (B*)</t>
+    <t>YAX3C</t>
   </si>
 </sst>
 </file>
@@ -520,7 +517,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,13 +565,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
@@ -582,25 +579,25 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/function/functionList_protocolCore.xlsx
+++ b/function/functionList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A763A-4EC3-4CAA-80CC-EBB9A94B8D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACDB3BA-48A5-470B-8131-B0F2B1D3C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -517,21 +517,21 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -577,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -600,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -609,7 +609,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -618,19 +618,19 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
